--- a/02/templateVisitor.xlsx
+++ b/02/templateVisitor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Приложение 1</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>канал“ и прилегающих к нему территорий</t>
-  </si>
-  <si>
-    <t>Штрих-код</t>
   </si>
   <si>
     <t xml:space="preserve">Сведения о туристе (экскурсанте): </t>
@@ -311,6 +308,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -319,9 +319,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -629,22 +626,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:Q43"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
     <col min="2" max="4" width="8.88671875" style="1"/>
     <col min="5" max="5" width="2.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="1.21875" style="1" customWidth="1"/>
     <col min="8" max="8" width="7.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="1.21875" style="1" customWidth="1"/>
     <col min="10" max="10" width="6.109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="4.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="2.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="3.44140625" style="1" customWidth="1"/>
     <col min="13" max="13" width="1.21875" style="1" customWidth="1"/>
     <col min="14" max="14" width="7.44140625" style="1" customWidth="1"/>
     <col min="15" max="15" width="1.21875" style="1" customWidth="1"/>
@@ -680,109 +677,109 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -804,11 +801,9 @@
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="24" t="s">
         <v>10</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>11</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
@@ -827,20 +822,20 @@
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="J15" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
+      <c r="A15" s="20"/>
+      <c r="J15" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
     </row>
     <row r="16" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="14"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -859,28 +854,28 @@
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
     </row>
     <row r="18" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="14"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -899,24 +894,24 @@
       <c r="Q18" s="4"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
+      <c r="B19" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
     </row>
     <row r="20" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B20" s="15"/>
@@ -937,63 +932,63 @@
       <c r="Q20" s="6"/>
     </row>
     <row r="21" spans="1:17" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+    </row>
+    <row r="23" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-    </row>
-    <row r="23" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:17" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="21"/>
+      <c r="B25" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="22"/>
     </row>
     <row r="26" spans="1:17" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B26" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
       <c r="E26" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="9"/>
@@ -1001,7 +996,7 @@
       <c r="I26" s="11"/>
       <c r="J26" s="17"/>
       <c r="K26" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L26" s="16"/>
       <c r="M26" s="9"/>
@@ -1009,12 +1004,12 @@
       <c r="O26" s="11"/>
       <c r="P26" s="17"/>
       <c r="Q26" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1034,14 +1029,14 @@
     </row>
     <row r="28" spans="1:17" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K28" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
+        <v>19</v>
+      </c>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
     </row>
     <row r="29" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B29" s="14"/>
@@ -1060,28 +1055,28 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
+      <c r="B31" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
     </row>
     <row r="32" spans="1:17" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="25"/>
@@ -1098,34 +1093,34 @@
       <c r="M32" s="25"/>
       <c r="N32" s="25"/>
       <c r="O32" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P32" s="27"/>
       <c r="Q32" s="28"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B34" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
+      <c r="B34" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
     </row>
     <row r="35" spans="2:17" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B35" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C35" s="29"/>
       <c r="D35" s="29"/>
@@ -1142,12 +1137,12 @@
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="2:17" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B36" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
@@ -1166,17 +1161,17 @@
       <c r="Q36" s="7"/>
     </row>
     <row r="37" spans="2:17" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I37" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
+      <c r="I37" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
     </row>
     <row r="38" spans="2:17" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B38" s="18"/>
@@ -1197,24 +1192,24 @@
       <c r="Q38" s="4"/>
     </row>
     <row r="39" spans="2:17" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
+      <c r="B39" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
     </row>
     <row r="40" spans="2:17" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B40" s="18"/>
@@ -1235,28 +1230,28 @@
       <c r="Q40" s="3"/>
     </row>
     <row r="41" spans="2:17" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+    </row>
+    <row r="43" spans="2:17" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="23" t="s">
         <v>32</v>
-      </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
-    </row>
-    <row r="43" spans="2:17" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="22" t="s">
-        <v>33</v>
       </c>
       <c r="C43" s="31"/>
       <c r="D43" s="31"/>
@@ -1275,7 +1270,7 @@
       <c r="Q43" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="24">
     <mergeCell ref="I37:Q37"/>
     <mergeCell ref="B39:Q39"/>
     <mergeCell ref="B43:Q43"/>
@@ -1283,6 +1278,7 @@
     <mergeCell ref="B34:Q34"/>
     <mergeCell ref="B35:H35"/>
     <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B14:H14"/>
     <mergeCell ref="B31:Q31"/>
     <mergeCell ref="B32:N32"/>
     <mergeCell ref="O32:Q32"/>
@@ -1292,17 +1288,15 @@
     <mergeCell ref="B21:Q21"/>
     <mergeCell ref="B23:Q23"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A14:A18"/>
     <mergeCell ref="J15:Q15"/>
     <mergeCell ref="B17:Q17"/>
-    <mergeCell ref="B14:H14"/>
     <mergeCell ref="A8:Q8"/>
     <mergeCell ref="A9:Q9"/>
     <mergeCell ref="A10:Q10"/>
     <mergeCell ref="A11:Q11"/>
     <mergeCell ref="A12:Q12"/>
   </mergeCells>
-  <pageMargins left="0.82677165354330717" right="0.39370078740157483" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.43307086614173229" right="0.39370078740157483" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>